--- a/F_dataset/DUD-E/MP2K1/MP2K1_prepare/MP2K1_active.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_prepare/MP2K1_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T136"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7553,1182 +7553,6 @@
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>CHEMBL3747066</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>1</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>CCS(=O)(=O)Nc1cccc(Oc2cc(F)c(F)c(Nc3ccc(I)cc3F)c2C(N)=O)c1</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>CCS(=O)(=O)Nc1cccc(Oc2cc(F)c(F)c(Nc3ccc(I)cc3F)c2C(N)=O)c1</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>591.35</v>
-      </c>
-      <c r="H123" t="n">
-        <v>3</v>
-      </c>
-      <c r="I123" t="n">
-        <v>5</v>
-      </c>
-      <c r="J123" t="n">
-        <v>8</v>
-      </c>
-      <c r="K123" t="n">
-        <v>3</v>
-      </c>
-      <c r="L123" t="n">
-        <v>3</v>
-      </c>
-      <c r="M123" t="n">
-        <v>110.52</v>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>12</v>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>CHEMBL3750088</t>
-        </is>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 (unknown origin) using biotinylated ERK1 as substrate incubated for 2 hrs by fluorescence analysis</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>CHEMBL37871</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Cc2ccccc2)c1</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Cc2ccccc2)c1</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>357.48</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4</v>
-      </c>
-      <c r="J124" t="n">
-        <v>5</v>
-      </c>
-      <c r="K124" t="n">
-        <v>3</v>
-      </c>
-      <c r="L124" t="n">
-        <v>3</v>
-      </c>
-      <c r="M124" t="n">
-        <v>75.83</v>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q124" t="n">
-        <v>40</v>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>CHEMBL729500</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>Inhibitory potency against mitogen activated protein kinase kinase 1</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>CHEMBL3753341</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>1</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2cc(C3CC3)on2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2cc(C3CC3)on2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>284.32</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>6</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3</v>
-      </c>
-      <c r="K125" t="n">
-        <v>4</v>
-      </c>
-      <c r="L125" t="n">
-        <v>3</v>
-      </c>
-      <c r="M125" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
-        <v>142</v>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>CHEMBL3757137</t>
-        </is>
-      </c>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human MEK1 by radiometric assay in presence of [gamma-33P]-ATP</t>
-        </is>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>CHEMBL213168</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(F)(F)F)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(F)(F)F)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>394.81</v>
-      </c>
-      <c r="H126" t="n">
-        <v>4</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5</v>
-      </c>
-      <c r="J126" t="n">
-        <v>5</v>
-      </c>
-      <c r="K126" t="n">
-        <v>2</v>
-      </c>
-      <c r="L126" t="n">
-        <v>2</v>
-      </c>
-      <c r="M126" t="n">
-        <v>103.76</v>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
-        <v>86</v>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>CHEMBL867341</t>
-        </is>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>CHEMBL3400291</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>1</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Cc1c(Cc2cccc(N(C)S(=O)(=O)CCCNCCCCCC(=O)N3CCN(c4nc(N5CCOCC5)nc(-n5c(C(F)F)nc6ccccc65)n4)CC3)c2)c(=O)oc2cc(OC(=O)N(C)C)ccc12</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Cc1c(Cc2cccc(N(C)S(=O)(=O)CCCNCCCCCC(=O)N3CCN(c4nc(N5CCOCC5)nc(-n5c(C(F)F)nc6ccccc65)n4)CC3)c2)c(=O)oc2cc(OC(=O)N(C)C)ccc12</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>1000.14</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>15</v>
-      </c>
-      <c r="J127" t="n">
-        <v>19</v>
-      </c>
-      <c r="K127" t="n">
-        <v>8</v>
-      </c>
-      <c r="L127" t="n">
-        <v>6</v>
-      </c>
-      <c r="M127" t="n">
-        <v>201.67</v>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
-        <v>473</v>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>CHEMBL3406097</t>
-        </is>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>CHEMBL1762110</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>CC(=O)NC[C@H]1CC[C@H](c2nc(-c3cc4ccccc4[nH]3)c3c(N)nccn32)CC1</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>CC(=O)NC[C@H]1CC[C@H](c2nc(-c3cc4ccccc4[nH]3)c3c(N)nccn32)CC1</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="H128" t="n">
-        <v>3</v>
-      </c>
-      <c r="I128" t="n">
-        <v>4</v>
-      </c>
-      <c r="J128" t="n">
-        <v>4</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5</v>
-      </c>
-      <c r="L128" t="n">
-        <v>4</v>
-      </c>
-      <c r="M128" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q128" t="n">
-        <v>960</v>
-      </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>CHEMBL1763004</t>
-        </is>
-      </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>CHEMBL203414</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Oc4ccc(Cl)cc4)cc3)c2c1C</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Oc4ccc(Cl)cc4)cc3)c2c1C</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>446.89</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>6</v>
-      </c>
-      <c r="J129" t="n">
-        <v>6</v>
-      </c>
-      <c r="K129" t="n">
-        <v>4</v>
-      </c>
-      <c r="L129" t="n">
-        <v>4</v>
-      </c>
-      <c r="M129" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q129" t="n">
-        <v>642</v>
-      </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>CHEMBL861916</t>
-        </is>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>Inhibitory activity against MEK</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>CHEMBL2006765</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>CCCNC(=O)c1ccc(Nc2nc(NCC(F)(F)F)c3cc[nH]c3n2)cc1</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>CCCNC(=O)c1ccc(Nc2nc(NCC(F)(F)F)c3cc[nH]c3n2)cc1</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>392.39</v>
-      </c>
-      <c r="H130" t="n">
-        <v>4</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5</v>
-      </c>
-      <c r="J130" t="n">
-        <v>7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>3</v>
-      </c>
-      <c r="L130" t="n">
-        <v>3</v>
-      </c>
-      <c r="M130" t="n">
-        <v>94.73</v>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q130" t="n">
-        <v>139</v>
-      </c>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>CHEMBL4007726</t>
-        </is>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 (unknown origin) after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>CHEMBL1908397</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>332.41</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3</v>
-      </c>
-      <c r="K131" t="n">
-        <v>4</v>
-      </c>
-      <c r="L131" t="n">
-        <v>3</v>
-      </c>
-      <c r="M131" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q131" t="n">
-        <v>530</v>
-      </c>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>CHEMBL1908395</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>CN(C)CC(=O)N1CCC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CC1</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>CN(C)CC(=O)N1CCC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CC1</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>460.58</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>6</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4</v>
-      </c>
-      <c r="L132" t="n">
-        <v>2</v>
-      </c>
-      <c r="M132" t="n">
-        <v>105.12</v>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q132" t="n">
-        <v>200</v>
-      </c>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>CHEMBL1230609</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>1</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>COc1cc2c(Oc3ccc(NC(=O)C4(C(=O)Nc5ccc(F)cc5)CC4)cc3F)ccnc2cc1OCCCN1CCOCC1</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>COc1cc2c(Oc3ccc(NC(=O)C4(C(=O)Nc5ccc(F)cc5)CC4)cc3F)ccnc2cc1OCCCN1CCOCC1</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>632.66</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>12</v>
-      </c>
-      <c r="K133" t="n">
-        <v>6</v>
-      </c>
-      <c r="L133" t="n">
-        <v>4</v>
-      </c>
-      <c r="M133" t="n">
-        <v>111.25</v>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q133" t="n">
-        <v>12</v>
-      </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>CHEMBL502835</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>COC(=O)c1ccc2c(c1)NC(=O)/C2=C(\Nc1ccc(N(C)C(=O)CN2CCN(C)CC2)cc1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>COC(=O)c1ccc2c(c1)NC(=O)/C2=C(\Nc1ccc(N(C)C(=O)CN2CCN(C)CC2)cc1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>539.64</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>7</v>
-      </c>
-      <c r="J134" t="n">
-        <v>7</v>
-      </c>
-      <c r="K134" t="n">
-        <v>5</v>
-      </c>
-      <c r="L134" t="n">
-        <v>3</v>
-      </c>
-      <c r="M134" t="n">
-        <v>94.22</v>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q134" t="n">
-        <v>10</v>
-      </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>CHEMBL1421</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>1</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Cc1nc(Nc2ncc(C(=O)Nc3c(C)cccc3Cl)s2)cc(N2CCN(CCO)CC2)n1</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Cc1nc(Nc2ncc(C(=O)Nc3c(C)cccc3Cl)s2)cc(N2CCN(CCO)CC2)n1</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>488.02</v>
-      </c>
-      <c r="H135" t="n">
-        <v>3</v>
-      </c>
-      <c r="I135" t="n">
-        <v>8</v>
-      </c>
-      <c r="J135" t="n">
-        <v>7</v>
-      </c>
-      <c r="K135" t="n">
-        <v>4</v>
-      </c>
-      <c r="L135" t="n">
-        <v>3</v>
-      </c>
-      <c r="M135" t="n">
-        <v>106.51</v>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q135" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>CHEMBL1061906</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>Binding constant for full-length MEK1</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>CHEMBL603469</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>439.47</v>
-      </c>
-      <c r="H136" t="n">
-        <v>3</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" t="n">
-        <v>8</v>
-      </c>
-      <c r="L136" t="n">
-        <v>5</v>
-      </c>
-      <c r="M136" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q136" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>CHEMBL1244505</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>Binding affinity to MEK1</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
